--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">7.872622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">splitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.685874</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -575,17 +581,27 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XF53908\Documents\Personale\phd\covid-ct-scans\Percentage-Covid-Estimator-main\Percentage-Covid-Estimator-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,57 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">NETWORK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREPROCESSING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOSS FUNCTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DenseNet121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InceptionV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResNeXt50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRNet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAHE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>PREPROCESSING</t>
+  </si>
+  <si>
+    <t>LOSS FUNCTION</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>DenseNet121</t>
+  </si>
+  <si>
+    <t>InceptionV3</t>
+  </si>
+  <si>
+    <t>ResNeXt50</t>
+  </si>
+  <si>
+    <t>HRNet</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>CLAHE</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Huber</t>
+      <t>Huber</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -80,57 +84,46 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(d 15 lineare)</t>
+      <t>(d 15 lineare)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Smooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.470589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.129269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.872622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">splitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.685874</t>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>splitting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,22 +132,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -162,21 +140,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,7 +237,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -267,93 +245,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -412,54 +350,328 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
+    <col min="1" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -501,7 +713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>17</v>
@@ -521,13 +733,13 @@
       <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>19</v>
+      <c r="L3" s="15">
+        <v>5.4705890000000004</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
         <v>17</v>
@@ -547,13 +759,13 @@
       <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>20</v>
+      <c r="L4" s="16">
+        <v>6.1292689999999999</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
@@ -573,13 +785,13 @@
       <c r="K5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>21</v>
+      <c r="L5" s="13">
+        <v>7.8726219999999998</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
         <v>17</v>
@@ -597,29 +809,54 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="L6" s="13">
+        <v>5.6858740000000001</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="13">
+        <v>18.069713</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -628,12 +865,7 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:N1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">splitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errore alto</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -661,33 +664,53 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">errore alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">augmentation</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,23 +333,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -430,10 +441,10 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -508,371 +519,391 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>5.470589</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="14" t="n">
         <v>6.129269</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="15" t="n">
         <v>7.872622</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="15" t="n">
         <v>5.685874</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>18.069713</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="15" t="n">
         <v>6.80632</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="A11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="15" t="n">
+        <v>5.715399</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="17" t="n">
+        <v>5.149669</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">augmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixup_shear</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -357,7 +363,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,10 +455,10 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -753,25 +767,25 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="17" t="n">
+      <c r="L12" s="18" t="n">
         <v>5.149669</v>
       </c>
       <c r="M12" s="13"/>
@@ -779,33 +793,53 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="19" t="n">
+        <v>4.955675</v>
+      </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>5.119876</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve">mixup_shear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixup_aug</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,15 +369,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,10 +453,10 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -767,25 +765,25 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="18" t="n">
+      <c r="L12" s="17" t="n">
         <v>5.149669</v>
       </c>
       <c r="M12" s="13"/>
@@ -793,25 +791,25 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="B13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="19" t="n">
+      <c r="L13" s="16" t="n">
         <v>4.955675</v>
       </c>
       <c r="M13" s="13"/>
@@ -846,64 +844,104 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="K15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="13" t="n">
+        <v>4.975024</v>
+      </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="K16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -123,10 +123,16 @@
     <t xml:space="preserve">mixup_shear</t>
   </si>
   <si>
+    <t xml:space="preserve">mixup rounded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.123751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixup_aug</t>
+  </si>
+  <si>
     <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixup_aug</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -790,26 +796,26 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="16" t="n">
+      <c r="L13" s="11" t="n">
         <v>4.955675</v>
       </c>
       <c r="M13" s="13"/>
@@ -885,10 +891,10 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -911,10 +917,10 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -937,27 +943,37 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <v>4.953113</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="29">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixup rounded 299</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -979,16 +982,24 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="K20" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t xml:space="preserve">NETWORK</t>
   </si>
@@ -132,10 +132,7 @@
     <t xml:space="preserve">mixup_aug</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixup rounded 299</t>
+    <t xml:space="preserve">bal amixup</t>
   </si>
 </sst>
 </file>
@@ -459,13 +456,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="15.71"/>
   </cols>
@@ -922,8 +919,8 @@
       <c r="K17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>27</v>
+      <c r="L17" s="13" t="n">
+        <v>5.498847</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -948,8 +945,8 @@
       <c r="K18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>27</v>
+      <c r="L18" s="13" t="n">
+        <v>5.192929</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -998,11 +995,30 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="L20" s="13" t="n">
+        <v>5.328978</v>
+      </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="13" t="n">
+        <v>5.521906</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
